--- a/JinRui/看穿版（生产）/V1_常州营业部：CTP终端认证采集信息报备_wy .xlsx
+++ b/JinRui/看穿版（生产）/V1_常州营业部：CTP终端认证采集信息报备_wy .xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="79">
   <si>
     <t>客户号</t>
   </si>
@@ -249,6 +249,13 @@
     <t xml:space="preserve">9NJLR3LTYPUKBWXE
 </t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>client_xtrader115_2.3 </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AEP0MOKJ4X4XEVWL</t>
   </si>
 </sst>
 </file>
@@ -297,7 +304,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -320,13 +327,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -352,6 +370,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -705,10 +726,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1220,6 +1241,17 @@
       </c>
       <c r="F25" s="7" t="s">
         <v>75</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="10">
+        <v>21000115</v>
+      </c>
+      <c r="B26" t="s">
+        <v>77</v>
+      </c>
+      <c r="C26" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/JinRui/看穿版（生产）/V1_常州营业部：CTP终端认证采集信息报备_wy .xlsx
+++ b/JinRui/看穿版（生产）/V1_常州营业部：CTP终端认证采集信息报备_wy .xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="82">
   <si>
     <t>客户号</t>
   </si>
@@ -256,6 +256,15 @@
   </si>
   <si>
     <t>AEP0MOKJ4X4XEVWL</t>
+  </si>
+  <si>
+    <t>姚薇</t>
+  </si>
+  <si>
+    <t>client_xtrader168_2.3</t>
+  </si>
+  <si>
+    <t>G26INDVTQ48S8SX</t>
   </si>
 </sst>
 </file>
@@ -726,15 +735,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="9.375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11.125" style="1" customWidth="1"/>
     <col min="2" max="2" width="23.75" style="1" customWidth="1"/>
     <col min="3" max="3" width="18.25" style="1" customWidth="1"/>
     <col min="4" max="4" width="8.875" style="1" customWidth="1"/>
@@ -1252,6 +1261,20 @@
       </c>
       <c r="C26" t="s">
         <v>78</v>
+      </c>
+      <c r="F26" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27">
+        <v>21000168</v>
+      </c>
+      <c r="B27" t="s">
+        <v>80</v>
+      </c>
+      <c r="C27" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/JinRui/看穿版（生产）/V1_常州营业部：CTP终端认证采集信息报备_wy .xlsx
+++ b/JinRui/看穿版（生产）/V1_常州营业部：CTP终端认证采集信息报备_wy .xlsx
@@ -264,7 +264,8 @@
     <t>client_xtrader168_2.3</t>
   </si>
   <si>
-    <t>G26INDVTQ48S8SX</t>
+    <t>5G26INDVTQ48S8SX</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -737,8 +738,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/JinRui/看穿版（生产）/V1_常州营业部：CTP终端认证采集信息报备_wy .xlsx
+++ b/JinRui/看穿版（生产）/V1_常州营业部：CTP终端认证采集信息报备_wy .xlsx
@@ -261,10 +261,11 @@
     <t>姚薇</t>
   </si>
   <si>
+    <t>5G26INDVTQ48S8SX</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>client_xtrader168_2.3</t>
-  </si>
-  <si>
-    <t>5G26INDVTQ48S8SX</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -354,7 +355,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -363,9 +364,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -381,8 +379,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -739,12 +752,12 @@
   <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="11.125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11.125" style="14" customWidth="1"/>
     <col min="2" max="2" width="23.75" style="1" customWidth="1"/>
     <col min="3" max="3" width="18.25" style="1" customWidth="1"/>
     <col min="4" max="4" width="8.875" style="1" customWidth="1"/>
@@ -754,7 +767,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -774,487 +787,487 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="4">
+      <c r="A2" s="10">
         <v>910210</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="7">
+      <c r="D2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="6">
         <v>999210012</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="7" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="4">
+      <c r="A3" s="10">
         <v>910225</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="7">
+      <c r="D3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="6">
         <v>999310029</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="7" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="4">
+      <c r="A4" s="10">
         <v>910028</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="7">
+      <c r="D4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="6">
         <v>999310003</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="7" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="4">
+      <c r="A5" s="10">
         <v>159030</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="7">
+      <c r="D5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="6">
         <v>999201673</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="7" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="4">
+      <c r="A6" s="10">
         <v>918031</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="7">
+      <c r="D6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="6">
         <v>999310030</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F6" s="7" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="4">
+      <c r="A7" s="10">
         <v>910100</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="7">
+      <c r="D7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="6">
         <v>999310011</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="7" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="4">
+      <c r="A8" s="10">
         <v>910112</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="7">
+      <c r="D8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="6">
         <v>999310017</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="F8" s="7" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="4">
+      <c r="A9" s="10">
         <v>910229</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="7">
+      <c r="D9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="6">
         <v>999210017</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="F9" s="7" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="4">
+      <c r="A10" s="10">
         <v>910096</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="7">
+      <c r="D10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="6">
         <v>999310009</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="F10" s="6" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="4">
+      <c r="A11" s="10">
         <v>910110</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="7">
+      <c r="D11" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="6">
         <v>999310015</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="F11" s="6" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="4">
+      <c r="A12" s="10">
         <v>113169</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D12" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" s="7">
+      <c r="D12" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="6">
         <v>999200831</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="F12" s="6" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="4">
+      <c r="A13" s="10">
         <v>910019</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D13" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" s="7">
+      <c r="D13" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="6">
         <v>999310002</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="F13" s="6" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="4">
+      <c r="A14" s="10">
         <v>910063</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D14" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="7">
+      <c r="D14" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="6">
         <v>999310007</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="F14" s="6" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="4">
+      <c r="A15" s="10">
         <v>910101</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="D15" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" s="7">
+      <c r="D15" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="6">
         <v>999310012</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="F15" s="6" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="4">
+      <c r="A16" s="10">
         <v>910109</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="D16" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E16" s="7">
+      <c r="D16" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="6">
         <v>999310013</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="F16" s="6" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="4">
+      <c r="A17" s="10">
         <v>910111</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="D17" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E17" s="7">
+      <c r="D17" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="6">
         <v>999310016</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="F17" s="6" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="4">
+      <c r="A18" s="10">
         <v>910211</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="D18" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E18" s="7">
+      <c r="D18" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="6">
         <v>999310013</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="F18" s="6" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="4">
+      <c r="A19" s="10">
         <v>910017</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="D19" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E19" s="7">
+      <c r="D19" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="6">
         <v>999310001</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="F19" s="6" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="4">
+      <c r="A20" s="10">
         <v>910097</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="D20" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E20" s="7">
+      <c r="D20" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="6">
         <v>999310010</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="F20" s="6" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="4">
+      <c r="A21" s="10">
         <v>910113</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="D21" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E21" s="7">
+      <c r="D21" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="6">
         <v>999310018</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="F21" s="6" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="4">
+      <c r="A22" s="10">
         <v>21000000</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="D22" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E22" s="7">
+      <c r="D22" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" s="6">
         <v>999201672</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="F22" s="6" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="4">
+      <c r="A23" s="10">
         <v>910223</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="D23" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E23" s="7">
+      <c r="D23" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="6">
         <v>999310028</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="F23" s="6" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="4">
+      <c r="A24" s="10">
         <v>21000031</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D24" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E24" s="7">
+      <c r="D24" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" s="6">
         <v>999201576</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="F24" s="6" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="27">
-      <c r="A25" s="6">
+      <c r="A25" s="11">
         <v>21000067</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="C25" s="9" t="s">
+      <c r="C25" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="D25" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E25" s="7">
+      <c r="D25" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" s="6">
         <v>999201615</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="F25" s="6" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="10">
+      <c r="A26" s="12">
         <v>21000115</v>
       </c>
       <c r="B26" t="s">
@@ -1268,14 +1281,14 @@
       </c>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27">
+      <c r="A27" s="13">
         <v>21000168</v>
       </c>
       <c r="B27" t="s">
+        <v>81</v>
+      </c>
+      <c r="C27" t="s">
         <v>80</v>
-      </c>
-      <c r="C27" t="s">
-        <v>81</v>
       </c>
     </row>
   </sheetData>
